--- a/C. 데이터 다루기/01. Pandas 자료형/grade.xlsx
+++ b/C. 데이터 다루기/01. Pandas 자료형/grade.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leekh/hossam-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leekh\hossam-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087CDEE-8EA2-0348-8BEA-F6BCB5F14721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="9660" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="9660" windowWidth="34560" windowHeight="20040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,19 +473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="4"/>
+    <col min="2" max="3" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -509,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -532,7 +531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -555,7 +554,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,7 +577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -601,7 +600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -612,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>50</v>
